--- a/直播源汇总文档/IPV6直播源汇总/甘肃移动-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/甘肃移动-域名版.xlsx
@@ -380,10 +380,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NewTV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>湖南金鹰卡通</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -752,6 +748,9 @@
   </si>
   <si>
     <t>http://php.jdshipin.com/TVOD/gsyd.php?</t>
+  </si>
+  <si>
+    <t>NEWTV</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1129,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -1147,10 +1146,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -1164,10 +1163,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -1181,10 +1180,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
@@ -1198,10 +1197,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
@@ -1215,10 +1214,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>102</v>
@@ -1232,10 +1231,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -1249,10 +1248,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>102</v>
@@ -1266,10 +1265,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>102</v>
@@ -1283,10 +1282,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
@@ -1300,10 +1299,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>102</v>
@@ -1317,10 +1316,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>102</v>
@@ -1334,10 +1333,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>102</v>
@@ -1351,10 +1350,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
         <v>102</v>
@@ -1368,10 +1367,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
         <v>102</v>
@@ -1385,10 +1384,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
         <v>102</v>
@@ -1402,10 +1401,10 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
         <v>102</v>
@@ -1419,10 +1418,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
         <v>102</v>
@@ -1436,10 +1435,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
         <v>102</v>
@@ -1453,10 +1452,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
         <v>102</v>
@@ -1470,10 +1469,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
         <v>102</v>
@@ -1487,10 +1486,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
         <v>102</v>
@@ -1504,10 +1503,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>102</v>
@@ -1521,10 +1520,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
         <v>102</v>
@@ -1538,10 +1537,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
@@ -1555,10 +1554,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>102</v>
@@ -1572,10 +1571,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
         <v>102</v>
@@ -1589,10 +1588,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>102</v>
@@ -1606,10 +1605,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
         <v>102</v>
@@ -1623,10 +1622,10 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>102</v>
@@ -1640,10 +1639,10 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
@@ -1657,10 +1656,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
         <v>102</v>
@@ -1674,10 +1673,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
         <v>102</v>
@@ -1691,10 +1690,10 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
         <v>102</v>
@@ -1708,10 +1707,10 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -1725,10 +1724,10 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
         <v>102</v>
@@ -1742,10 +1741,10 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
         <v>102</v>
@@ -1759,10 +1758,10 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>102</v>
@@ -1776,10 +1775,10 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
         <v>102</v>
@@ -1793,10 +1792,10 @@
         <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
         <v>102</v>
@@ -1810,10 +1809,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
         <v>102</v>
@@ -1821,16 +1820,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
         <v>102</v>
@@ -1838,16 +1837,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
         <v>102</v>
@@ -1855,16 +1854,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
         <v>102</v>
@@ -1872,16 +1871,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
         <v>102</v>
@@ -1889,16 +1888,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
         <v>102</v>
@@ -1906,16 +1905,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
         <v>102</v>
@@ -1929,10 +1928,10 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
         <v>102</v>
@@ -1946,10 +1945,10 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
         <v>102</v>
@@ -1963,10 +1962,10 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
         <v>102</v>
@@ -1980,10 +1979,10 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
         <v>102</v>
@@ -1997,10 +1996,10 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
         <v>102</v>
@@ -2014,10 +2013,10 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
         <v>102</v>
@@ -2031,10 +2030,10 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
         <v>102</v>
@@ -2048,10 +2047,10 @@
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
         <v>102</v>
@@ -2065,10 +2064,10 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
         <v>102</v>
@@ -2082,10 +2081,10 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
         <v>102</v>
@@ -2099,10 +2098,10 @@
         <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
         <v>102</v>
@@ -2116,10 +2115,10 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
         <v>102</v>
@@ -2156,10 +2155,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -2173,10 +2172,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -2190,10 +2189,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -2229,10 +2228,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -2246,10 +2245,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -2263,10 +2262,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -2280,10 +2279,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
@@ -2297,10 +2296,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
@@ -2314,10 +2313,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>102</v>
@@ -2331,10 +2330,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -2348,10 +2347,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
         <v>102</v>
@@ -2365,10 +2364,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
         <v>102</v>
@@ -2382,10 +2381,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
@@ -2399,10 +2398,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
         <v>102</v>
@@ -2416,10 +2415,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
         <v>102</v>
@@ -2433,10 +2432,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
         <v>102</v>
@@ -2450,10 +2449,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
         <v>102</v>
@@ -2467,10 +2466,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
         <v>102</v>
@@ -2484,10 +2483,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
         <v>102</v>
@@ -2501,10 +2500,10 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
         <v>102</v>
@@ -2518,10 +2517,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
         <v>102</v>
@@ -2535,10 +2534,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
         <v>102</v>
@@ -2552,10 +2551,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
         <v>102</v>
@@ -2569,10 +2568,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
         <v>102</v>
@@ -2586,10 +2585,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
         <v>102</v>
@@ -2603,10 +2602,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
         <v>102</v>
@@ -2620,10 +2619,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
         <v>102</v>
@@ -2637,10 +2636,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
@@ -2654,10 +2653,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
         <v>102</v>
@@ -2671,10 +2670,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
         <v>102</v>
@@ -2688,10 +2687,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
         <v>102</v>
@@ -2705,10 +2704,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
         <v>102</v>
@@ -2722,10 +2721,10 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
         <v>102</v>
@@ -2739,10 +2738,10 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
@@ -2756,10 +2755,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
         <v>102</v>
@@ -2773,10 +2772,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
         <v>102</v>
@@ -2790,10 +2789,10 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
         <v>102</v>
@@ -2807,10 +2806,10 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -2824,10 +2823,10 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
         <v>102</v>
@@ -2841,10 +2840,10 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
         <v>102</v>
@@ -2858,10 +2857,10 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
         <v>102</v>
@@ -2875,10 +2874,10 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
         <v>102</v>
@@ -2892,10 +2891,10 @@
         <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
         <v>102</v>
@@ -2909,10 +2908,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
         <v>102</v>
@@ -2926,10 +2925,10 @@
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
         <v>102</v>
@@ -2943,10 +2942,10 @@
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" t="s">
         <v>102</v>
@@ -2960,10 +2959,10 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
         <v>102</v>
@@ -2977,10 +2976,10 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
         <v>102</v>
@@ -2994,10 +2993,10 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
         <v>102</v>
@@ -3011,10 +3010,10 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
         <v>102</v>
@@ -3028,10 +3027,10 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
         <v>102</v>
@@ -3045,10 +3044,10 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
         <v>102</v>
@@ -3062,10 +3061,10 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
         <v>102</v>
@@ -3079,10 +3078,10 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
         <v>102</v>
@@ -3096,10 +3095,10 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
         <v>102</v>
@@ -3113,10 +3112,10 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
         <v>102</v>
@@ -3130,10 +3129,10 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
         <v>102</v>
@@ -3147,10 +3146,10 @@
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
         <v>102</v>
@@ -3164,10 +3163,10 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
         <v>102</v>
@@ -3181,10 +3180,10 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" t="s">
         <v>102</v>
@@ -3198,10 +3197,10 @@
         <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
         <v>102</v>
@@ -3215,10 +3214,10 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
         <v>102</v>
@@ -3232,10 +3231,10 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
         <v>102</v>
@@ -3249,10 +3248,10 @@
         <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
         <v>102</v>
@@ -3266,10 +3265,10 @@
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
         <v>102</v>
@@ -3283,10 +3282,10 @@
         <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
         <v>102</v>
@@ -3300,10 +3299,10 @@
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
         <v>102</v>
@@ -3317,10 +3316,10 @@
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>102</v>
@@ -3334,10 +3333,10 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
         <v>102</v>
@@ -3351,10 +3350,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
         <v>102</v>
@@ -3368,10 +3367,10 @@
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
         <v>102</v>
@@ -3385,10 +3384,10 @@
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E69" t="s">
         <v>102</v>
@@ -3396,16 +3395,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
         <v>102</v>
@@ -3413,16 +3412,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
         <v>102</v>
@@ -3436,10 +3435,10 @@
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
         <v>102</v>
@@ -3453,10 +3452,10 @@
         <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
         <v>102</v>
@@ -3470,10 +3469,10 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
         <v>102</v>
@@ -3487,10 +3486,10 @@
         <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
         <v>102</v>
@@ -3504,10 +3503,10 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
         <v>102</v>
@@ -3521,10 +3520,10 @@
         <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E77" t="s">
         <v>102</v>
@@ -3538,10 +3537,10 @@
         <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E78" t="s">
         <v>102</v>
@@ -3555,10 +3554,10 @@
         <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
         <v>102</v>
@@ -3598,10 +3597,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -3615,10 +3614,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -3632,10 +3631,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -3649,10 +3648,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
@@ -3666,10 +3665,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
@@ -3683,10 +3682,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
         <v>102</v>
@@ -3700,10 +3699,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -3740,10 +3739,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -3751,16 +3750,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -3768,16 +3767,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -3791,10 +3790,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
@@ -3808,10 +3807,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
@@ -3847,10 +3846,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -3864,10 +3863,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -3881,10 +3880,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -3920,10 +3919,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -3931,16 +3930,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -3948,16 +3947,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -3965,16 +3964,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
@@ -3982,16 +3981,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
@@ -4027,10 +4026,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -4038,16 +4037,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -4055,16 +4054,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -4100,10 +4099,10 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -4117,10 +4116,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -4134,10 +4133,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -4151,10 +4150,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
@@ -4168,10 +4167,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
@@ -4185,10 +4184,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
         <v>102</v>
@@ -4202,10 +4201,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -4219,10 +4218,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>102</v>
@@ -4236,10 +4235,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
         <v>102</v>
@@ -4277,10 +4276,10 @@
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
         <v>110</v>
@@ -4288,7 +4287,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>97</v>
@@ -4297,10 +4296,10 @@
         <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>102</v>
@@ -4308,7 +4307,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>97</v>
@@ -4317,10 +4316,10 @@
         <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
         <v>102</v>
@@ -4328,7 +4327,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -4337,10 +4336,10 @@
         <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>102</v>
@@ -4348,7 +4347,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -4357,10 +4356,10 @@
         <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
         <v>102</v>
@@ -4368,7 +4367,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -4377,10 +4376,10 @@
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -4388,7 +4387,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -4397,10 +4396,10 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
         <v>102</v>
@@ -4408,7 +4407,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -4417,10 +4416,10 @@
         <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
         <v>102</v>
@@ -4428,7 +4427,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -4437,10 +4436,10 @@
         <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
         <v>102</v>
@@ -4448,7 +4447,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -4457,10 +4456,10 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
         <v>102</v>
@@ -4468,7 +4467,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -4477,10 +4476,10 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -4488,7 +4487,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
@@ -4497,10 +4496,10 @@
         <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
         <v>102</v>
@@ -4508,7 +4507,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
@@ -4517,10 +4516,10 @@
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" t="s">
         <v>102</v>
@@ -4528,7 +4527,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
         <v>92</v>
@@ -4537,10 +4536,10 @@
         <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
         <v>102</v>
@@ -4548,7 +4547,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
@@ -4557,10 +4556,10 @@
         <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -4568,7 +4567,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -4577,10 +4576,10 @@
         <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
         <v>102</v>
@@ -4588,7 +4587,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -4597,10 +4596,10 @@
         <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
         <v>102</v>
@@ -4608,7 +4607,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
@@ -4617,10 +4616,10 @@
         <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
         <v>102</v>
@@ -4628,7 +4627,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
         <v>81</v>
@@ -4637,10 +4636,10 @@
         <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
         <v>102</v>
@@ -4648,7 +4647,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
@@ -4657,10 +4656,10 @@
         <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -4668,7 +4667,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
@@ -4677,10 +4676,10 @@
         <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -4688,7 +4687,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -4697,10 +4696,10 @@
         <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
         <v>102</v>
@@ -4708,7 +4707,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
@@ -4717,10 +4716,10 @@
         <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
         <v>102</v>
@@ -4728,7 +4727,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -4737,10 +4736,10 @@
         <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
         <v>102</v>
@@ -4748,7 +4747,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -4757,10 +4756,10 @@
         <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
         <v>102</v>
@@ -4768,7 +4767,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
@@ -4777,10 +4776,10 @@
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F26" t="s">
         <v>102</v>
@@ -4788,7 +4787,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -4797,10 +4796,10 @@
         <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
         <v>102</v>
@@ -4808,7 +4807,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
         <v>100</v>
@@ -4817,10 +4816,10 @@
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F28" t="s">
         <v>102</v>
@@ -4828,7 +4827,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s">
         <v>100</v>
@@ -4837,10 +4836,10 @@
         <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
         <v>102</v>
@@ -4848,7 +4847,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
@@ -4857,10 +4856,10 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
         <v>102</v>
@@ -4868,7 +4867,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
@@ -4877,10 +4876,10 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31" t="s">
         <v>102</v>
@@ -4888,7 +4887,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
@@ -4897,10 +4896,10 @@
         <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
         <v>102</v>
@@ -4908,7 +4907,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
         <v>89</v>
@@ -4917,10 +4916,10 @@
         <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
         <v>102</v>
@@ -4928,7 +4927,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
         <v>90</v>
@@ -4937,10 +4936,10 @@
         <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
         <v>102</v>
@@ -4948,7 +4947,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
@@ -4957,10 +4956,10 @@
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F35" t="s">
         <v>102</v>
@@ -4968,7 +4967,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
         <v>82</v>
@@ -4977,10 +4976,10 @@
         <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
         <v>102</v>
@@ -4988,7 +4987,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
@@ -4997,10 +4996,10 @@
         <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s">
         <v>102</v>
@@ -5008,7 +5007,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s">
         <v>86</v>
@@ -5017,10 +5016,10 @@
         <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F38" t="s">
         <v>102</v>
@@ -5028,7 +5027,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
@@ -5037,10 +5036,10 @@
         <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
         <v>102</v>
@@ -5048,7 +5047,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -5057,10 +5056,10 @@
         <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
@@ -5068,7 +5067,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
         <v>93</v>
@@ -5077,10 +5076,10 @@
         <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
         <v>102</v>
@@ -5088,7 +5087,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -5097,10 +5096,10 @@
         <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F42" t="s">
         <v>102</v>
@@ -5108,7 +5107,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -5117,10 +5116,10 @@
         <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
         <v>102</v>
@@ -5128,7 +5127,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B44" t="s">
         <v>103</v>
@@ -5137,10 +5136,10 @@
         <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
         <v>102</v>
@@ -5148,7 +5147,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
         <v>103</v>
@@ -5157,10 +5156,10 @@
         <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s">
         <v>102</v>
@@ -5168,7 +5167,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
         <v>87</v>
@@ -5177,10 +5176,10 @@
         <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" t="s">
         <v>102</v>
@@ -5188,7 +5187,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
         <v>87</v>
@@ -5197,10 +5196,10 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F47" t="s">
         <v>102</v>
@@ -5208,7 +5207,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
         <v>91</v>
@@ -5217,10 +5216,10 @@
         <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
         <v>102</v>
@@ -5228,7 +5227,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
         <v>91</v>
@@ -5237,10 +5236,10 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F49" t="s">
         <v>102</v>
@@ -5248,7 +5247,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
         <v>88</v>
@@ -5257,10 +5256,10 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" t="s">
         <v>102</v>
@@ -5268,7 +5267,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
@@ -5277,10 +5276,10 @@
         <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
         <v>102</v>
@@ -5288,7 +5287,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
@@ -5297,10 +5296,10 @@
         <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F52" t="s">
         <v>102</v>
@@ -5308,7 +5307,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
         <v>94</v>
@@ -5317,10 +5316,10 @@
         <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" t="s">
         <v>102</v>
@@ -5328,7 +5327,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
         <v>84</v>
@@ -5337,10 +5336,10 @@
         <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" t="s">
         <v>102</v>
@@ -5348,7 +5347,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
         <v>84</v>
@@ -5357,10 +5356,10 @@
         <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F55" t="s">
         <v>102</v>
@@ -5368,7 +5367,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
         <v>96</v>
@@ -5377,10 +5376,10 @@
         <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F56" t="s">
         <v>102</v>
@@ -5388,7 +5387,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
         <v>96</v>
@@ -5397,10 +5396,10 @@
         <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
         <v>102</v>
